--- a/TMTDentalAPI/ClientApp/src/assets/files/MauFileNhomThuoc.xlsx
+++ b/TMTDentalAPI/ClientApp/src/assets/files/MauFileNhomThuoc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP8200\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GIGA\Documents\Projects\TDental\TMTDentalAPI\ClientApp\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,10 +26,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>nhóm thuốc giảm đau, chống viêm</t>
+    <t>Tên nhóm thuốc</t>
   </si>
   <si>
-    <t>Tên nhóm thuốc</t>
+    <t>Thuốc giảm đau</t>
   </si>
 </sst>
 </file>
@@ -359,7 +359,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -370,12 +370,12 @@
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
